--- a/data/trans_bre/P17G_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5495461980395548</v>
+        <v>-0.0170287290610884</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.182093387205366</v>
+        <v>-3.193950719505243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.578913082632027</v>
+        <v>4.927095767205747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.579178990283397</v>
+        <v>-9.760840761423385</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01535866006096835</v>
+        <v>-0.0001649149378068714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.03184286451804088</v>
+        <v>-0.03204329595565125</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0666252307643824</v>
+        <v>0.05785703309511631</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1008442740980336</v>
+        <v>-0.1029901759086522</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>29.1149517544507</v>
+        <v>27.57760719473639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.687388359875833</v>
+        <v>6.920332511211559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30.64678543661677</v>
+        <v>30.02512563573731</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.51854691915152</v>
+        <v>7.558991248848661</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.454980393544952</v>
+        <v>0.420257778154141</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08350923137430322</v>
+        <v>0.07502295230589261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4703886023479547</v>
+        <v>0.473228625035345</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1112239453950739</v>
+        <v>0.08855575206391576</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.065344038449678</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.909653126558797</v>
+        <v>1.909653126558786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.005174392122499921</v>
@@ -749,7 +749,7 @@
         <v>0.01116388923362047</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02117421972932555</v>
+        <v>0.02117421972932542</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.814658508442847</v>
+        <v>-7.673944302365353</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.897979905707205</v>
+        <v>-1.888392993072507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.957047090140568</v>
+        <v>-3.440906629151749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.269515144443613</v>
+        <v>-5.799134270516606</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08278393268381738</v>
+        <v>-0.08072875813788422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01990749046479937</v>
+        <v>-0.0200036423660932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02983376180403761</v>
+        <v>-0.0350140804617823</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06629144443608022</v>
+        <v>-0.0613474462295576</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.49132117298868</v>
+        <v>8.731945835762113</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.38049096248264</v>
+        <v>13.30390646999365</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.012117849327421</v>
+        <v>7.174252749067331</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.72371116482516</v>
+        <v>11.08858811517466</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09788203562631928</v>
+        <v>0.1028272659760354</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1594024253868947</v>
+        <v>0.1595654818657012</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08891415885226765</v>
+        <v>0.07938741621039141</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.129742508779545</v>
+        <v>0.1317055860361749</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.203281330596431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.0952066129654483</v>
+        <v>-0.0952066129654261</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02929478955107587</v>
@@ -849,7 +849,7 @@
         <v>0.04662761745353226</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.001042528915808638</v>
+        <v>-0.001042528915808395</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.215895689269774</v>
+        <v>-3.842089038052431</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.666988265898024</v>
+        <v>-2.895963655896229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.16254853958844</v>
+        <v>-2.648296275949408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.67881780891725</v>
+        <v>-7.23977138421006</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03245949125201705</v>
+        <v>-0.03846876283726403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.03767760470362472</v>
+        <v>-0.03137836921356631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03189507695095305</v>
+        <v>-0.02789517646800524</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.0822321419595482</v>
+        <v>-0.07582427401479661</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.00866374349238</v>
+        <v>14.44909033521709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.186769077422706</v>
+        <v>9.240571581759616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.96988496306162</v>
+        <v>13.3553769007196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.955805395212732</v>
+        <v>8.51681397150317</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1555881042115977</v>
+        <v>0.1748802215560233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1035927450682063</v>
+        <v>0.1036951441619403</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1550947365685766</v>
+        <v>0.157720599470387</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1057349616768617</v>
+        <v>0.1006490327291643</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-5.147698100853681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.319747325649169</v>
+        <v>2.319747325649135</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.001338267637757521</v>
@@ -949,7 +949,7 @@
         <v>-0.05430854997572778</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02606863595513146</v>
+        <v>0.02606863595513109</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.182507173963217</v>
+        <v>-5.86654819563635</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07152094815268809</v>
+        <v>-0.1857759169273349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.12648157269771</v>
+        <v>-13.22212594771302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.85150545445669</v>
+        <v>-5.497702351437135</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0627289435520615</v>
+        <v>-0.06069696721836474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001731331440179357</v>
+        <v>-0.001371832088359067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1277120543115118</v>
+        <v>-0.1372206237794092</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05174930624807055</v>
+        <v>-0.05834860210367058</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.445512931997673</v>
+        <v>8.45456391540646</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.53013285437318</v>
+        <v>18.64598923650603</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.08193899632584</v>
+        <v>2.990299075169928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.87135033434021</v>
+        <v>12.50208481600384</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0946957270077807</v>
+        <v>0.09630363517718482</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2335428359856623</v>
+        <v>0.2349374405805785</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03200774787889919</v>
+        <v>0.03135307430079501</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1625998353788726</v>
+        <v>0.1547736397839166</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.141571427002072</v>
+        <v>-8.144668561353431</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.982910809882656</v>
+        <v>-4.255776230452012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.092188085478</v>
+        <v>0.5680756148706558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-19.11726371637314</v>
+        <v>-19.76250231456218</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.08494791795509134</v>
+        <v>-0.08462327067230731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.0524683565478001</v>
+        <v>-0.04421676759999769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0116129441767957</v>
+        <v>0.00546282643595069</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1997601653638007</v>
+        <v>-0.2029762352165203</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.52256547957052</v>
+        <v>11.6587741370204</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.93067491467542</v>
+        <v>17.17488582032535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32.49543941992415</v>
+        <v>31.68825341148825</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.756942416556404</v>
+        <v>8.442805128795246</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1482828725528113</v>
+        <v>0.1367385255288722</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1864608083811873</v>
+        <v>0.2230473540552385</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4876857240415083</v>
+        <v>0.4829885330058044</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.111440564848966</v>
+        <v>0.09208852097330084</v>
       </c>
     </row>
     <row r="19">
@@ -1160,24 +1160,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.730558167253037</v>
+        <v>-3.546892064723756</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>-5.365810421081437</v>
+        <v>-5.569547937598878</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-10.53210193129341</v>
+        <v>-10.08404521629076</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03896703457415165</v>
+        <v>-0.03603579381598263</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.05384245694569919</v>
+        <v>-0.05590720408320279</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1071849680950399</v>
+        <v>-0.1022450025959941</v>
       </c>
     </row>
     <row r="21">
@@ -1188,24 +1188,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.78886429541653</v>
+        <v>14.10725275716332</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>2.965820598759545</v>
+        <v>2.612621039186418</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9333618398140771</v>
+        <v>1.353235175472875</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1782759965513434</v>
+        <v>0.1694112973520663</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.03124361188892614</v>
+        <v>0.02759660459488806</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.00967456779901644</v>
+        <v>0.01410787314148148</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1229,7 @@
         <v>1.312067029065123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.361303211692166</v>
+        <v>1.361303211692133</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01615535278157041</v>
@@ -1241,7 +1241,7 @@
         <v>0.01402343397260022</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01642732630206608</v>
+        <v>0.01642732630206568</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.465391814109362</v>
+        <v>-3.902607256899815</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.205523402755746</v>
+        <v>-4.072282944263101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.735063489468059</v>
+        <v>-3.826707391016483</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.723765530670789</v>
+        <v>-6.301026128433454</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.03597147633810752</v>
+        <v>-0.03941334755228638</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.04411588551065185</v>
+        <v>-0.04286848044603266</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.03867540749401329</v>
+        <v>-0.03972731838858447</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.06548199178972237</v>
+        <v>-0.07229473752406479</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.695391254138496</v>
+        <v>6.780430721063293</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.027225199459747</v>
+        <v>6.544378001409116</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.599233582765838</v>
+        <v>7.465770713794186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.05338767951596</v>
+        <v>9.592892828613445</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07551337754449849</v>
+        <v>0.07593559345913642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07900391206884365</v>
+        <v>0.07431119628716017</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08433230972207606</v>
+        <v>0.08282940810137002</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.131441528625379</v>
+        <v>0.1280989709753907</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1329,7 @@
         <v>2.614315871769857</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.677000840966725</v>
+        <v>1.677000840966703</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04796520892085624</v>
@@ -1341,7 +1341,7 @@
         <v>0.02931925043833071</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.01824120898884557</v>
+        <v>0.01824120898884532</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.358151822596989</v>
+        <v>-1.03167518032395</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.134447095125002</v>
+        <v>-2.169559137617457</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.271767974502769</v>
+        <v>-3.086238407419374</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.999276453116393</v>
+        <v>-3.243878785702834</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01512185213894335</v>
+        <v>-0.01055103110916268</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02243685509779245</v>
+        <v>-0.02192638275539586</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0350927853201176</v>
+        <v>-0.03388699390090859</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.03201447849659626</v>
+        <v>-0.03383063115854514</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.11250270612641</v>
+        <v>11.02456286302591</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.178611180677397</v>
+        <v>7.67374425957426</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.993556843392727</v>
+        <v>8.104240156618756</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.971959169121065</v>
+        <v>7.345033906049854</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1173596350288643</v>
+        <v>0.1306720356398056</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08943149953357163</v>
+        <v>0.08498715009853247</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09351049275214539</v>
+        <v>0.09416414126639906</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09105872020271503</v>
+        <v>0.08389044552498641</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1429,7 @@
         <v>2.555806507209646</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.3945083070594824</v>
+        <v>0.3945083070594935</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03544072389981508</v>
@@ -1441,7 +1441,7 @@
         <v>0.02799301350711017</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.004408680993777619</v>
+        <v>0.004408680993777743</v>
       </c>
     </row>
     <row r="29">
@@ -1452,28 +1452,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.728239506547543</v>
+        <v>0.5470299139223411</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5848651604320048</v>
+        <v>0.5316565115938133</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2760685409198902</v>
+        <v>0.14736995797621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.562992302102917</v>
+        <v>-2.483042765561517</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.007843968988115462</v>
+        <v>0.005907338153511168</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006172600779340542</v>
+        <v>0.005692423925582712</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.003141854224443809</v>
+        <v>0.001489309579416163</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.02796405799550163</v>
+        <v>-0.02717051475988625</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1484,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.098762964805185</v>
+        <v>6.136894847373447</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.025739462492209</v>
+        <v>5.165168644972313</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.082299873238086</v>
+        <v>5.078845865280402</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.529176209158205</v>
+        <v>3.693717091641782</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.06862271879489125</v>
+        <v>0.06945494597031733</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05502362094033663</v>
+        <v>0.05658305716213519</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05716230975681327</v>
+        <v>0.05648118897905905</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.04043760405540438</v>
+        <v>0.04257052571278817</v>
       </c>
     </row>
     <row r="31">
